--- a/lesson17/weather_condition.xlsx
+++ b/lesson17/weather_condition.xlsx
@@ -38,7 +38,7 @@
       <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -47,37 +47,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00045483"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000566A0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00529BC7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F5EEF6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DCDAEB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00023E62"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C2CBE2"/>
+        <fgColor rgb="00328FBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008AB4D6"/>
       </patternFill>
     </fill>
     <fill>
@@ -87,27 +62,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FAF2F8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0067A4CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000A73B2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006FA7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00187CB6"/>
+        <fgColor rgb="0001736A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00028189"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00016553"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0084B2D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F5ECF5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F0E6F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00015D4B"/>
       </patternFill>
     </fill>
   </fills>
@@ -129,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -138,18 +123,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -540,10 +522,10 @@
         <v>45292</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>4.582093267324916</v>
+        <v>3.546356405659441</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.259326560904522</v>
+        <v>4.590680553181971</v>
       </c>
     </row>
     <row r="3">
@@ -551,10 +533,10 @@
         <v>45293</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>4.229119502267381</v>
+        <v>2.722503169103603</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>1.141849225050497</v>
+        <v>2.769949346331861</v>
       </c>
     </row>
     <row r="4">
@@ -562,54 +544,54 @@
         <v>45294</v>
       </c>
       <c r="B4" s="7" t="n">
-        <v>3.267418843269513</v>
+        <v>0.0842918635771317</v>
       </c>
       <c r="C4" s="8" t="n">
-        <v>3.107815773204412</v>
+        <v>1.255608674753116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>45295</v>
       </c>
-      <c r="B5" s="9" t="n">
-        <v>1.274606613931086</v>
-      </c>
-      <c r="C5" s="10" t="n">
-        <v>3.937964983900573</v>
+      <c r="B5" s="5" t="n">
+        <v>2.721803538347023</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>1.40697278326787</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>45296</v>
       </c>
-      <c r="B6" s="11" t="n">
-        <v>1.796106057943319</v>
-      </c>
-      <c r="C6" s="12" t="n">
-        <v>3.037236809126429</v>
+      <c r="B6" s="7" t="n">
+        <v>0.5531837802670514</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>0.9210918688043179</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>45297</v>
       </c>
-      <c r="B7" s="13" t="n">
-        <v>4.896506016472731</v>
-      </c>
-      <c r="C7" s="14" t="n">
-        <v>3.807292972071628</v>
+      <c r="B7" s="10" t="n">
+        <v>4.320748661752921</v>
+      </c>
+      <c r="C7" s="11" t="n">
+        <v>4.696030718278695</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>45298</v>
       </c>
-      <c r="B8" s="15" t="n">
-        <v>2.167028808424445</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.06212135664151186</v>
+      <c r="B8" s="12" t="n">
+        <v>4.009658871190165</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>0.7763476412184128</v>
       </c>
     </row>
   </sheetData>

--- a/lesson17/weather_condition.xlsx
+++ b/lesson17/weather_condition.xlsx
@@ -32,13 +32,13 @@
       <b val="1"/>
     </font>
     <font>
+      <color rgb="00000000"/>
+    </font>
+    <font>
       <color rgb="00F1F1F1"/>
     </font>
-    <font>
-      <color rgb="00000000"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill/>
     </fill>
@@ -47,22 +47,52 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00328FBC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008AB4D6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FFF7FB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0001736A"/>
+        <fgColor rgb="00C0C9E2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000C8495"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1E7F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00015544"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCD8EA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003E94C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005BA3CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00098391"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1E8F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -72,27 +102,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00016553"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0084B2D4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F5ECF5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F0E6F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00015D4B"/>
+        <fgColor rgb="00017164"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A5BDDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002E8EB8"/>
       </patternFill>
     </fill>
   </fills>
@@ -114,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -123,15 +143,19 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -522,10 +546,10 @@
         <v>45292</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>3.546356405659441</v>
+        <v>0.9575972518944614</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.590680553181971</v>
+        <v>3.110543855199159</v>
       </c>
     </row>
     <row r="3">
@@ -533,10 +557,10 @@
         <v>45293</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>2.722503169103603</v>
+        <v>2.188638695035572</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>2.769949346331861</v>
+        <v>3.926792918568846</v>
       </c>
     </row>
     <row r="4">
@@ -544,54 +568,54 @@
         <v>45294</v>
       </c>
       <c r="B4" s="7" t="n">
-        <v>0.0842918635771317</v>
+        <v>3.899879040594017</v>
       </c>
       <c r="C4" s="8" t="n">
-        <v>1.255608674753116</v>
+        <v>1.362963026413208</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>45295</v>
       </c>
-      <c r="B5" s="5" t="n">
-        <v>2.721803538347023</v>
-      </c>
-      <c r="C5" s="9" t="n">
-        <v>1.40697278326787</v>
+      <c r="B5" s="9" t="n">
+        <v>1.382321275715483</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>4.009360887675096</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>45296</v>
       </c>
-      <c r="B6" s="7" t="n">
-        <v>0.5531837802670514</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>0.9210918688043179</v>
+      <c r="B6" s="11" t="n">
+        <v>4.790696768418526</v>
+      </c>
+      <c r="C6" s="12" t="n">
+        <v>4.379663173710473</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>45297</v>
       </c>
-      <c r="B7" s="10" t="n">
-        <v>4.320748661752921</v>
-      </c>
-      <c r="C7" s="11" t="n">
-        <v>4.696030718278695</v>
+      <c r="B7" s="13" t="n">
+        <v>1.789086349789333</v>
+      </c>
+      <c r="C7" s="14" t="n">
+        <v>2.504975627617294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>45298</v>
       </c>
-      <c r="B8" s="12" t="n">
-        <v>4.009658871190165</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>0.7763476412184128</v>
+      <c r="B8" s="15" t="n">
+        <v>3.417314675860681</v>
+      </c>
+      <c r="C8" s="16" t="n">
+        <v>3.563510134914501</v>
       </c>
     </row>
   </sheetData>
